--- a/ResultsAnalysis/global_results.xlsx
+++ b/ResultsAnalysis/global_results.xlsx
@@ -2052,18 +2052,20 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8691562601276347</v>
+        <v>0.8269467468186171</v>
       </c>
       <c r="H36" t="n">
-        <v>6.93943190574646</v>
+        <v>15.12096357345581</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>6.93943190574646</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>15.12096357345581</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2097,18 +2099,20 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8588294801627085</v>
+        <v>0.8346286309244421</v>
       </c>
       <c r="H37" t="n">
-        <v>0.205817699432373</v>
+        <v>0.854478120803833</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.205817699432373</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>0.854478120803833</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2142,18 +2146,20 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.884847089753181</v>
+        <v>0.8258022611941038</v>
       </c>
       <c r="H38" t="n">
-        <v>13.62381196022034</v>
+        <v>59.09400129318237</v>
       </c>
       <c r="I38" t="n">
         <v>100</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1362381196022034</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>0.5909400129318237</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2187,18 +2193,20 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8884695648486647</v>
+        <v>0.8278452114356494</v>
       </c>
       <c r="H39" t="n">
-        <v>3.095711469650269</v>
+        <v>5.610887050628662</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.095711469650269</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>5.610887050628662</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2232,18 +2240,20 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8884695648486647</v>
+        <v>0.8294518917544784</v>
       </c>
       <c r="H40" t="n">
-        <v>3.201745986938477</v>
+        <v>7.493222951889038</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.201745986938477</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>7.493222951889038</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2277,18 +2287,20 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8877275026426501</v>
+        <v>0.8408885011309946</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2139384746551514</v>
+        <v>1.294256448745728</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2139384746551514</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>1.294256448745728</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2322,18 +2334,20 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8877275026426501</v>
+        <v>0.8410602263105685</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1755061149597168</v>
+        <v>1.466903209686279</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1755061149597168</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>1.466903209686279</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2367,18 +2381,20 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9029867246585757</v>
+        <v>0.8412392467969956</v>
       </c>
       <c r="H43" t="n">
-        <v>7.832563400268555</v>
+        <v>27.02620673179626</v>
       </c>
       <c r="I43" t="n">
         <v>100</v>
       </c>
       <c r="J43" t="n">
-        <v>0.07832563400268555</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>0.2702620673179627</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2412,18 +2428,20 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9029867246585757</v>
+        <v>0.8425120240930364</v>
       </c>
       <c r="H44" t="n">
-        <v>7.67881441116333</v>
+        <v>29.18382358551025</v>
       </c>
       <c r="I44" t="n">
         <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0767881441116333</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>0.2918382358551025</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2457,18 +2475,20 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8820317966083213</v>
+        <v>0.8265007921117307</v>
       </c>
       <c r="H45" t="n">
-        <v>3.098071813583374</v>
+        <v>5.550853252410889</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.098071813583374</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>5.550853252410889</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2502,18 +2522,20 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8780928092657825</v>
+        <v>0.8275464739064742</v>
       </c>
       <c r="H46" t="n">
-        <v>3.148637294769287</v>
+        <v>7.196524858474731</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.148637294769287</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>7.196524858474731</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2547,18 +2569,20 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8820317966083213</v>
+        <v>0.8265007921117307</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2249670028686523</v>
+        <v>0.2990939617156982</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2249670028686523</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>0.2990939617156982</v>
+      </c>
+      <c r="K47" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2592,18 +2616,20 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8962536459484918</v>
+        <v>0.8354558235653933</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2377157211303711</v>
+        <v>0.8191165924072266</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2377157211303711</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>0.8191165924072266</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2637,18 +2663,20 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9083659184458492</v>
+        <v>0.8400244619039816</v>
       </c>
       <c r="H49" t="n">
-        <v>6.525276184082031</v>
+        <v>24.14540815353394</v>
       </c>
       <c r="I49" t="n">
         <v>100</v>
       </c>
       <c r="J49" t="n">
-        <v>0.06525276184082031</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>0.2414540815353393</v>
+      </c>
+      <c r="K49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2682,18 +2710,20 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9007544803898704</v>
+        <v>0.8417985642286322</v>
       </c>
       <c r="H50" t="n">
-        <v>6.935408115386963</v>
+        <v>28.50107908248901</v>
       </c>
       <c r="I50" t="n">
         <v>100</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06935408115386962</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>0.2850107908248901</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2727,18 +2757,20 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8845305775061258</v>
+        <v>0.8240171630446314</v>
       </c>
       <c r="H51" t="n">
-        <v>2.860083341598511</v>
+        <v>6.64790940284729</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.860083341598511</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>6.64790940284729</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2772,18 +2804,20 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8863236421018836</v>
+        <v>0.8233166127014845</v>
       </c>
       <c r="H52" t="n">
-        <v>2.906015634536743</v>
+        <v>7.618446826934814</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.906015634536743</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>7.618446826934814</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2817,18 +2851,20 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8838748368220353</v>
+        <v>0.8259885769873838</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1061296463012695</v>
+        <v>0.3562424182891846</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1061296463012695</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>0.3562424182891846</v>
+      </c>
+      <c r="K53" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2862,18 +2898,20 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8838748368220353</v>
+        <v>0.8352137673985931</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1427924633026123</v>
+        <v>0.6476178169250488</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1427924633026123</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>0.6476178169250488</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2907,18 +2945,20 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8939926278391452</v>
+        <v>0.8419818878888116</v>
       </c>
       <c r="H55" t="n">
-        <v>6.781807899475098</v>
+        <v>24.97894978523254</v>
       </c>
       <c r="I55" t="n">
         <v>100</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06781807899475098</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>0.2497894978523254</v>
+      </c>
+      <c r="K55" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2952,18 +2992,20 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8983420210139902</v>
+        <v>0.8395874835963968</v>
       </c>
       <c r="H56" t="n">
-        <v>7.117060661315918</v>
+        <v>26.64813280105591</v>
       </c>
       <c r="I56" t="n">
         <v>100</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07117060661315917</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>0.2664813280105591</v>
+      </c>
+      <c r="K56" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2997,18 +3039,20 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8988463204315471</v>
+        <v>0.8270412157559089</v>
       </c>
       <c r="H57" t="n">
-        <v>3.033688545227051</v>
+        <v>5.440364837646484</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.033688545227051</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>5.440364837646484</v>
+      </c>
+      <c r="K57" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3042,18 +3086,20 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.892761410342227</v>
+        <v>0.8301606783933332</v>
       </c>
       <c r="H58" t="n">
-        <v>3.115392923355103</v>
+        <v>7.428974866867065</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.115392923355103</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>7.428974866867065</v>
+      </c>
+      <c r="K58" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3087,18 +3133,20 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8780852372024558</v>
+        <v>0.8392204662242412</v>
       </c>
       <c r="H59" t="n">
-        <v>0.175297737121582</v>
+        <v>0.5779387950897217</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0.175297737121582</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>0.5779387950897217</v>
+      </c>
+      <c r="K59" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3132,18 +3180,20 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8834356571490879</v>
+        <v>0.8343136216891123</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1760501861572266</v>
+        <v>0.5903444290161133</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1760501861572266</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>0.5903444290161133</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3177,18 +3227,20 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8962824197891333</v>
+        <v>0.8390526741666228</v>
       </c>
       <c r="H61" t="n">
-        <v>6.811598539352417</v>
+        <v>20.30105566978455</v>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>0.06811598539352418</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>0.2030105566978455</v>
+      </c>
+      <c r="K61" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3222,18 +3274,20 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9076026544625198</v>
+        <v>0.838786480049757</v>
       </c>
       <c r="H62" t="n">
-        <v>7.105916023254395</v>
+        <v>25.31743574142456</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
       <c r="J62" t="n">
-        <v>0.07105916023254394</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>0.2531743574142456</v>
+      </c>
+      <c r="K62" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3267,18 +3321,20 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9111887836540356</v>
+        <v>0.8427752260768016</v>
       </c>
       <c r="H63" t="n">
-        <v>19.24195981025696</v>
+        <v>55.05057048797607</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>19.24195981025696</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>55.05057048797607</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3312,18 +3368,20 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9111887836540356</v>
+        <v>0.8427752260768016</v>
       </c>
       <c r="H64" t="n">
-        <v>17.45704531669617</v>
+        <v>60.56906414031982</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>17.45704531669617</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>60.56906414031982</v>
+      </c>
+      <c r="K64" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3357,18 +3415,20 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9124200011509536</v>
+        <v>0.842214597604513</v>
       </c>
       <c r="H65" t="n">
-        <v>65.92859053611755</v>
+        <v>330.8678059577942</v>
       </c>
       <c r="I65" t="n">
         <v>10</v>
       </c>
       <c r="J65" t="n">
-        <v>6.592859053611756</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>33.08678059577942</v>
+      </c>
+      <c r="K65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3402,18 +3462,20 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9124200011509536</v>
+        <v>0.842214597604513</v>
       </c>
       <c r="H66" t="n">
-        <v>62.81979990005493</v>
+        <v>407.5261158943176</v>
       </c>
       <c r="I66" t="n">
         <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>6.281979990005493</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>40.75261158943177</v>
+      </c>
+      <c r="K66" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
